--- a/hw2_table.xlsx
+++ b/hw2_table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>использование бонусной карты при покупке</t>
   </si>
@@ -76,15 +76,83 @@
   </si>
   <si>
     <t>х</t>
+  </si>
+  <si>
+    <t>невозможно использование бонусов без наличия карты</t>
+  </si>
+  <si>
+    <t>покупка товара по бонусной системе без наличия активированной карты</t>
+  </si>
+  <si>
+    <t>ТРЕБОВАНИЯ</t>
+  </si>
+  <si>
+    <t>сценарии</t>
+  </si>
+  <si>
+    <t>потратить 30 рублей чтобы получить 1 бонус</t>
+  </si>
+  <si>
+    <t>накопить 500 бонусных рублей для преобразования их в скидку</t>
+  </si>
+  <si>
+    <t>заполнить анкету-заявление и зарегистрироваться для использования скидки</t>
+  </si>
+  <si>
+    <t>использовать бонусные рубли только суммой кратной 500 рублей</t>
+  </si>
+  <si>
+    <t>невозможно накапливать и тратить бонусные рубли при наличии заблокированной и недействительной карты</t>
+  </si>
+  <si>
+    <t>Бонусные рубли, не активированные в скидку, сгорают, если в течение одного года с момента последнего зачисления Бонусных рублей не было совершено покупок</t>
+  </si>
+  <si>
+    <t>бонусные рубли активированные в скидку сгорают через 180 дней если не были потрачены</t>
+  </si>
+  <si>
+    <t>совершить покупку на сумму более 30 рублей</t>
+  </si>
+  <si>
+    <t>использовать бонусные рубли на 181 день</t>
+  </si>
+  <si>
+    <t>совершить покупку на сумму 15 000 рублей и более</t>
+  </si>
+  <si>
+    <t>зарегистрироваться в программе в течение 90 дней с момента первой покупки с боннусной картой для сохранения бонусов</t>
+  </si>
+  <si>
+    <t>использовать скидку без регистрации</t>
+  </si>
+  <si>
+    <t>зарегистрироваться на 91 день после первой покупки</t>
+  </si>
+  <si>
+    <t>использовать 550 бонусных рублей</t>
+  </si>
+  <si>
+    <t>потратить бонусы с заблокированной карты</t>
+  </si>
+  <si>
+    <t>начислить на карту менее 500 бонусов. Совершить следующую покупку более чем через один год</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="21"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -112,8 +180,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -417,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,13 +672,332 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="3" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" ht="310.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+    </row>
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A3:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/hw2_table.xlsx
+++ b/hw2_table.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>использование бонусной карты при покупке</t>
   </si>
@@ -168,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -176,30 +176,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -675,326 +820,329 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" customWidth="1"/>
-    <col min="3" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" customWidth="1"/>
     <col min="12" max="12" width="5.140625" customWidth="1"/>
     <col min="13" max="13" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:29" ht="310.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+    </row>
+    <row r="2" spans="1:29" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
+      <c r="A22" s="4"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
+      <c r="A23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:V1"/>
     <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1003,12 +1151,223 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="291.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="A3:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>